--- a/biology/Botanique/Général_Leclerc_(poire)/Général_Leclerc_(poire).xlsx
+++ b/biology/Botanique/Général_Leclerc_(poire)/Général_Leclerc_(poire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9n%C3%A9ral_Leclerc_(poire)</t>
+          <t>Général_Leclerc_(poire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Général Leclerc est une variété de poire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9n%C3%A9ral_Leclerc_(poire)</t>
+          <t>Général_Leclerc_(poire)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Général Leclerc est un semis de Doyenné du Comice réalisé avant 1950 par Charles-Alfred Nomblot aux pépinières Nomblot-Brunaux de Bourg-la-Reine (Hauts-de-Seine). La variété est introduite dans les collections de l'INRA, à Angers, en 1954 et commercialisée à partir de 1974[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Général Leclerc est un semis de Doyenné du Comice réalisé avant 1950 par Charles-Alfred Nomblot aux pépinières Nomblot-Brunaux de Bourg-la-Reine (Hauts-de-Seine). La variété est introduite dans les collections de l'INRA, à Angers, en 1954 et commercialisée à partir de 1974,.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9n%C3%A9ral_Leclerc_(poire)</t>
+          <t>Général_Leclerc_(poire)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre est comparable à « Doyenné du Comice » et « Beurré Hardy » avant la fructification. Son port devient érigé ensuite et se compare alors à la « Passe-Crassane »[1].
-Très sensible à l'alternance, aux maladies (feu bactérien) et aux ravageurs (Pseudomonas syringae, psylles)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre est comparable à « Doyenné du Comice » et « Beurré Hardy » avant la fructification. Son port devient érigé ensuite et se compare alors à la « Passe-Crassane ».
+Très sensible à l'alternance, aux maladies (feu bactérien) et aux ravageurs (Pseudomonas syringae, psylles).
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9n%C3%A9ral_Leclerc_(poire)</t>
+          <t>Général_Leclerc_(poire)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,13 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est assez gros, d'un poids moyen de 230 g. Piriforme, trapu, il se récolte vers le 10-15 septembre[1].
-L'épiderme est épais, solide, de couleur jaune avec de nombreuses roussissures tirant au cuivré[1].
-Le code PLU du fruit est 3020[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est assez gros, d'un poids moyen de 230 g. Piriforme, trapu, il se récolte vers le 10-15 septembre.
+L'épiderme est épais, solide, de couleur jaune avec de nombreuses roussissures tirant au cuivré.
+Le code PLU du fruit est 3020.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>G%C3%A9n%C3%A9ral_Leclerc_(poire)</t>
+          <t>Général_Leclerc_(poire)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Appréciation générale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très bonne qualité gustative, maturité en octobre[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très bonne qualité gustative, maturité en octobre.
 </t>
         </is>
       </c>
